--- a/Test_Data/test_data.xlsx
+++ b/Test_Data/test_data.xlsx
@@ -1533,7 +1533,7 @@
       <c r="L4" s="23" t="n"/>
       <c r="M4" s="23" t="inlineStr">
         <is>
-          <t>{'1': '20200908134820454285134149'}</t>
+          <t>{'1': '20200909163747548350851575'}</t>
         </is>
       </c>
       <c r="N4" s="23" t="n"/>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H5" s="23" t="inlineStr">
         <is>
-          <t>{"recordsFiltered":4,"data":[{"octId":"20200908134820454285134149","costName":"啦啦啦69","price":69.0000,"unit":"元","costType":"9","costItem":"91","state":null,"createStaffId":"44170","createTime":1599544101000,"modifyStaffId":null,"modifyTime":null,"corpId":"2360","tenantId":"ITQ8m46H1FpoaC2brNC52vLr06lv24LA","orgId":"075703","costTypeDes":"其他","costItemDes":"垃圾费","stateDes":"无效","corpDesc":"分公司4","createStaffName":"50000","modifyStaffName":null,"woId":null,"isScope":"0","priceScope":null,"custType":null,"addrCodeId":null,"addrCodeDes":null,"priceDesc":"69.00","priceScopeStart":null,"priceScopeEnd":null,"custTypeDes":null},{"octId":"20200903161849058548820237","costName":"开户费区间","price":3.0000,"unit":"元","costType":"9","costItem":"91","state":"1","createStaffId":"44170","createTime":1599121130000,"modifyStaffId":null,"modifyTime":null,"corpId":"2360","tenantId":"ITQ8m46H1FpoaC2brNC52vLr06lv24LA","orgId":"075703","costTypeDes":"其他","costItemDes":"垃圾费","stateDes":"有效","corpDesc":"分公司4","createStaffName":"50000","modifyStaffName":null,"woId":null,"isScope":"0","priceScope":null,"custType":null,"addrCodeId":null,"addrCodeDes":null,"priceDesc":"3.00","priceScopeStart":null,"priceScopeEnd":null,"custTypeDes":null},{"octId":"20200804102003583716151077","costName":"换表费","price":50.0000,"unit":"元","costType":"9","costItem":"96","state":"1","createStaffId":"44170","createTime":1596507604000,"modifyStaffId":null,"modifyTime":null,"corpId":"2360","tenantId":"ITQ8m46H1FpoaC2brNC52vLr06lv24LA","orgId":"075703","costTypeDes":"其他","costItemDes":"改装费","stateDes":"有效","corpDesc":"分公司4","createStaffName":"50000","modifyStaffName":null,"woId":null,"isScope":"0","priceScope":null,"custType":null,"addrCodeId":null,"addrCodeDes":null,"priceDesc":"50.00","priceScopeStart":null,"priceScopeEnd":null,"custTypeDes":null},{"octId":"20200804101919465384623855","costName":"过户费","price":10.0000,"unit":"元","costType":"9","costItem":"93","state":"1","createStaffId":"44170","createTime":1596507560000,"modifyStaffId":null,"modifyTime":null,"corpId":"2360","tenantId":"ITQ8m46H1FpoaC2brNC52vLr06lv24LA","orgId":"075703","costTypeDes":"其他","costItemDes":"过户费","stateDes":"有效","corpDesc":"分公司4","createStaffName":"50000","modifyStaffName":null,"woId":null,"isScope":"0","priceScope":null,"custType":null,"addrCodeId":null,"addrCodeDes":null,"priceDesc":"10.00","priceScopeStart":null,"priceScopeEnd":null,"custTypeDes":null}],"draw":2,"recordsTotal":4}</t>
+          <t>{"recordsFiltered":4,"data":[{"octId":"20200909163747548350851575","costName":"啦啦啦89","price":89.0000,"unit":"元","costType":"9","costItem":"91","state":null,"createStaffId":"44170","createTime":1599640668000,"modifyStaffId":null,"modifyTime":null,"corpId":"2360","tenantId":"ITQ8m46H1FpoaC2brNC52vLr06lv24LA","orgId":"075703","costTypeDes":"其他","costItemDes":"垃圾费","stateDes":"无效","corpDesc":"分公司4","createStaffName":"50000","modifyStaffName":null,"woId":null,"isScope":"0","priceScope":null,"custType":null,"addrCodeId":null,"addrCodeDes":null,"priceDesc":"89.00","priceScopeStart":null,"priceScopeEnd":null,"custTypeDes":null},{"octId":"20200903161849058548820237","costName":"开户费区间","price":3.0000,"unit":"元","costType":"9","costItem":"91","state":"1","createStaffId":"44170","createTime":1599121130000,"modifyStaffId":null,"modifyTime":null,"corpId":"2360","tenantId":"ITQ8m46H1FpoaC2brNC52vLr06lv24LA","orgId":"075703","costTypeDes":"其他","costItemDes":"垃圾费","stateDes":"有效","corpDesc":"分公司4","createStaffName":"50000","modifyStaffName":null,"woId":null,"isScope":"0","priceScope":null,"custType":null,"addrCodeId":null,"addrCodeDes":null,"priceDesc":"3.00","priceScopeStart":null,"priceScopeEnd":null,"custTypeDes":null},{"octId":"20200804102003583716151077","costName":"换表费","price":50.0000,"unit":"元","costType":"9","costItem":"96","state":"1","createStaffId":"44170","createTime":1596507604000,"modifyStaffId":null,"modifyTime":null,"corpId":"2360","tenantId":"ITQ8m46H1FpoaC2brNC52vLr06lv24LA","orgId":"075703","costTypeDes":"其他","costItemDes":"改装费","stateDes":"有效","corpDesc":"分公司4","createStaffName":"50000","modifyStaffName":null,"woId":null,"isScope":"0","priceScope":null,"custType":null,"addrCodeId":null,"addrCodeDes":null,"priceDesc":"50.00","priceScopeStart":null,"priceScopeEnd":null,"custTypeDes":null},{"octId":"20200804101919465384623855","costName":"过户费","price":10.0000,"unit":"元","costType":"9","costItem":"93","state":"1","createStaffId":"44170","createTime":1596507560000,"modifyStaffId":null,"modifyTime":null,"corpId":"2360","tenantId":"ITQ8m46H1FpoaC2brNC52vLr06lv24LA","orgId":"075703","costTypeDes":"其他","costItemDes":"过户费","stateDes":"有效","corpDesc":"分公司4","createStaffName":"50000","modifyStaffName":null,"woId":null,"isScope":"0","priceScope":null,"custType":null,"addrCodeId":null,"addrCodeDes":null,"priceDesc":"10.00","priceScopeStart":null,"priceScopeEnd":null,"custTypeDes":null}],"draw":2,"recordsTotal":4}</t>
         </is>
       </c>
       <c r="I5" s="23" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="M6" s="23" t="inlineStr">
         <is>
-          <t>{'1': '20200908134820454285134149', '2': "{'oct_id': '20200908134820454285134149', 'cost_name': '说啥呢', 'price': Decimal('69.0000'), 'unit': '元', 'cost_type': '9', 'cost_item': '91', 'state': None, 'create_staff_id': '44170', 'create_time': datetime.datetime(2020, 9, 8, 13, 48, 21), 'modify_staff_id': '44170', 'modify_time': datetime.datetime(2020, 9, 8, 13, 48, 22), 'corp_id': '2360', 'tenant_id': 'ITQ8m46H1FpoaC2brNC52vLr06lv24LA', 'org_id': '075703', 'invoice_type': None, 'is_scope': '0', 'price_scope': None, 'addr_code_id': None, 'addr_code_des': None, 'cust_type': None}", '3': "{'oct_id': '20200908134820454285134149', 'cost_name': '说啥呢', 'price': Decimal('69.0000'), 'unit': '元', 'cost_type': '9', 'cost_item': '91', 'state': None, 'create_staff_id': '44170', 'create_time': datetime.datetime(2020, 9, 8, 13, 48, 21), 'modify_staff_id': '44170', 'modify_time': datetime.datetime(2020, 9, 8, 13, 48, 22), 'corp_id': '2360', 'tenant_id': 'ITQ8m46H1FpoaC2brNC52vLr06lv24LA', 'org_id': '075703', 'invoice_type': None, 'is_scope': '0', 'price_scope': None, 'addr_code_id': None, 'addr_code_des': None, 'cust_type': None}"}</t>
+          <t>{'1': '20200909163747548350851575', '2': "{'oct_id': '20200909163747548350851575', 'cost_name': '说啥呢', 'price': Decimal('89.0000'), 'unit': '元', 'cost_type': '9', 'cost_item': '91', 'state': None, 'create_staff_id': '44170', 'create_time': datetime.datetime(2020, 9, 9, 16, 37, 48), 'modify_staff_id': '44170', 'modify_time': datetime.datetime(2020, 9, 9, 16, 37, 49), 'corp_id': '2360', 'tenant_id': 'ITQ8m46H1FpoaC2brNC52vLr06lv24LA', 'org_id': '075703', 'invoice_type': None, 'is_scope': '0', 'price_scope': None, 'addr_code_id': None, 'addr_code_des': None, 'cust_type': None}", '3': "{'oct_id': '20200909163747548350851575', 'cost_name': '说啥呢', 'price': Decimal('89.0000'), 'unit': '元', 'cost_type': '9', 'cost_item': '91', 'state': None, 'create_staff_id': '44170', 'create_time': datetime.datetime(2020, 9, 9, 16, 37, 48), 'modify_staff_id': '44170', 'modify_time': datetime.datetime(2020, 9, 9, 16, 37, 49), 'corp_id': '2360', 'tenant_id': 'ITQ8m46H1FpoaC2brNC52vLr06lv24LA', 'org_id': '075703', 'invoice_type': None, 'is_scope': '0', 'price_scope': None, 'addr_code_id': None, 'addr_code_des': None, 'cust_type': None}"}</t>
         </is>
       </c>
       <c r="N6" s="23" t="inlineStr">
@@ -2081,7 +2081,7 @@
       </c>
       <c r="M13" s="28" t="inlineStr">
         <is>
-          <t>{'1': "{'mr_plan_id': '202009081348246310105322752999', 'mr_plan_no': '88888', 'mr_plan_name': '接口测试', 'mr_plan_type': '11', 'mr_frequency': '1', 'frequency_unit': '1', 'lng': None, 'lat': None, 'state': '1', 'remark': None, 'mr_staff_id': '44210', 'next_exec_date': datetime.date(2020, 9, 3), 'plan_day': None, 'perfor_index': None, 'create_staff_id': '44170', 'create_time': datetime.datetime(2020, 9, 8, 13, 48, 25), 'corp_id': '2360', 'dept_id': '2360', 'tenant_id': 'ITQ8m46H1FpoaC2brNC52vLr06lv24LA', 'org_id': '075703', 'mr_task_id': None, 'limit_billing_qty': Decimal('0.00')}"}</t>
+          <t>{'1': "{'mr_plan_id': '202009091637507050105944857518', 'mr_plan_no': '88888', 'mr_plan_name': '接口测试', 'mr_plan_type': '11', 'mr_frequency': '1', 'frequency_unit': '1', 'lng': None, 'lat': None, 'state': '1', 'remark': None, 'mr_staff_id': '44210', 'next_exec_date': datetime.date(2020, 9, 3), 'plan_day': None, 'perfor_index': None, 'create_staff_id': '44170', 'create_time': datetime.datetime(2020, 9, 9, 16, 37, 51), 'corp_id': '2360', 'dept_id': '2360', 'tenant_id': 'ITQ8m46H1FpoaC2brNC52vLr06lv24LA', 'org_id': '075703', 'mr_task_id': None, 'limit_billing_qty': Decimal('0.00')}"}</t>
         </is>
       </c>
       <c r="N13" s="23" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="H14" s="23" t="inlineStr">
         <is>
-          <t>{"recordsFiltered":1,"data":[{"mrPlanId":"202009081348246310105322752999","frequencyUnit":"1","mrPlanNo":"88888","deptId":"分公司4","perforIndex":null,"limitBillingQty":0.00,"mrFrequency":"1","mrPlanTypeDes":"普表","mrPlanName":"接口测试","stateDes":"待执行","mrPlanType":"11","createStaffId":"50000","execStaffId":"抄表工","createTime":1599544105000,"nextExecDate":"2020-09-03","state":"1","staffId":"44210"}],"draw":0,"recordsTotal":1}</t>
+          <t>{"recordsFiltered":1,"data":[{"mrPlanId":"202009091637507050105944857518","frequencyUnit":"1","mrPlanNo":"88888","deptId":"分公司4","perforIndex":null,"limitBillingQty":0.00,"mrFrequency":"1","mrPlanTypeDes":"普表","mrPlanName":"接口测试","stateDes":"待执行","mrPlanType":"11","createStaffId":"50000","execStaffId":"抄表工","createTime":1599640671000,"nextExecDate":"2020-09-03","state":"1","staffId":"44210"}],"draw":0,"recordsTotal":1}</t>
         </is>
       </c>
       <c r="I14" s="28" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="M14" s="28" t="inlineStr">
         <is>
-          <t>{'1': '202009081348246310105322752999'}</t>
+          <t>{'1': '202009091637507050105944857518'}</t>
         </is>
       </c>
       <c r="N14" s="23" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>20200908134820454285134149</t>
+          <t>20200909163747548350851575</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="B9" s="14" t="inlineStr">
         <is>
-          <t>20200908134820454285134149</t>
+          <t>20200909163747548350851575</t>
         </is>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="B10" s="13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>202009081348246310105322752999</t>
+          <t>202009091637507050105944857518</t>
         </is>
       </c>
     </row>
